--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210B3043-249E-4352-8B48-A3C38BD96DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C014503-D526-48A6-98AB-26EA8E7D72E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -659,13 +659,13 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -693,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -778,7 +778,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="b">
@@ -790,6 +790,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -802,12 +818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1004,6 +1014,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1014,15 +1030,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1041,6 +1048,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C014503-D526-48A6-98AB-26EA8E7D72E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B88907-A18B-42A6-9722-463C7422028A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC03_PDP_Check" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>SCROLL_DOWN</t>
   </si>
   <si>
-    <t>http://129.213.54.196:8002/nike-women-s-flex-supreme-tr-5-training-shoes/8364707</t>
-  </si>
-  <si>
     <t>PDP_Header</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>TC03_PDP_Check</t>
+  </si>
+  <si>
+    <t>http://129.213.54.196:8002/eagles-wings-nfl-san-francisco-49ers-grid-necktie/7446279</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +559,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -576,13 +576,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -645,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -718,12 +718,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="b">
         <v>1</v>
@@ -811,13 +811,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CADB6A97-A972-4A77-B077-FAA22826A788}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6FDA0439-E8F6-48B3-8D86-C409BA236CD1}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1014,12 +1020,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1030,6 +1030,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1048,15 +1057,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B88907-A18B-42A6-9722-463C7422028A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C014503-D526-48A6-98AB-26EA8E7D72E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC03_PDP_Check" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,9 @@
     <t>SCROLL_DOWN</t>
   </si>
   <si>
+    <t>http://129.213.54.196:8002/nike-women-s-flex-supreme-tr-5-training-shoes/8364707</t>
+  </si>
+  <si>
     <t>PDP_Header</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>TC03_PDP_Check</t>
-  </si>
-  <si>
-    <t>http://129.213.54.196:8002/eagles-wings-nfl-san-francisco-49ers-grid-necktie/7446279</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +559,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -576,13 +576,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -645,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -718,12 +718,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="b">
         <v>1</v>
@@ -811,19 +811,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6FDA0439-E8F6-48B3-8D86-C409BA236CD1}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CADB6A97-A972-4A77-B077-FAA22826A788}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1020,6 +1014,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1030,15 +1030,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1057,6 +1048,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC03_PDP_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C014503-D526-48A6-98AB-26EA8E7D72E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1981C1-8DD6-4851-B55C-5467808664C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC03_PDP_Check" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>SCROLL_DOWN</t>
   </si>
   <si>
-    <t>http://129.213.54.196:8002/nike-women-s-flex-supreme-tr-5-training-shoes/8364707</t>
-  </si>
-  <si>
     <t>PDP_Header</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>TC03_PDP_Check</t>
+  </si>
+  <si>
+    <t>http://129.213.54.196:8002/under-armour-heatgear-sonic-fitted-shirt/6225774?</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -576,13 +576,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -645,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -718,12 +718,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="b">
         <v>1</v>
@@ -811,13 +811,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CADB6A97-A972-4A77-B077-FAA22826A788}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9200DAB9-81D0-4A5B-B49B-A2D7A2C35F1D}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1014,22 +1029,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1046,21 +1063,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>